--- a/src/lab_05/data2/out/people.xlsx
+++ b/src/lab_05/data2/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,6 +423,7 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,6 +437,11 @@
           <t>age</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -448,6 +454,11 @@
           <t>22</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SPB</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -460,14 +471,11 @@
           <t>25</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
